--- a/data/long_razon/P18_6-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_6-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-25,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>135,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-28,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-16,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>58,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 53,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-54,46; 16,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,08; 313,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 8,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 70,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 64,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 13,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,01; 24,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,83; 118,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-53,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>69,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-46,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-49,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>57,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,52; -24,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 183,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 193,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,19; -20,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,63; 177,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 111,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,79; -32,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,38; 144,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 116,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-41,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-37,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-39,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-68,27; 18,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 74,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 41,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-52,65; -12,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,32; 166,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 45,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-56,48; -15,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 96,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 32,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-47,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-38,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,49; -26,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 90,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 76,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,78; -5,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,7; 172,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 17,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,03; -22,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,29; 107,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 27,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>88,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-26,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-17,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>76,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 56,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 202,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 65,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 7,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,46; 150,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 48,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 9,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33,86; 139,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 42,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-24,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>60,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 77,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 106,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 59,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 10,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 143,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 80,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 14,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 91,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 50,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-30,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-32,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>67,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-31,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-42,32; -15,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 48,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,82; 54,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-41,42; -21,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,58; 97,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 28,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-39,02; -23,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,97; 62,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,1; 34,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P18_6-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_6-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.1272085115560213</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.3494297063407739</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.388493255041382</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.02589370756368508</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.3662663390547122</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.296268415227154</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.1011638482959895</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.1204689951837295</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2844333086662028</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.6119051472268048</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.2153138207233963</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.1571667916586675</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.6183404808452166</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.1397428149738637</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.03475811737532362</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.4344832998312452</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.6045349071160764</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.4062057025117684</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4617705286233467</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.7248466437967722</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.5606472753425114</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2470502645058368</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2520485764893317</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.5761664036644152</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.06278686971102897</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.4419845720227893</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.3787703165328099</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>0.1723818578502888</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.4164789043065717</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.3671385180243297</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.3304407443008427</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.05807154235639699</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.098591377062282</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.8437244829505995</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.3394199867429352</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.05293869304220581</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.6805209213162526</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.650203647359754</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.2126078436135046</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.985019399763069</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.04773157401614412</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.1644380045863281</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>1.286145441442708</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.2967902930711304</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.6645736026487037</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.5297277126990027</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.654953401311539</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.7460965515163485</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.07418046787594067</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2694248105492915</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.4820923630093248</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.6848420258628449</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.4180220391788577</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.5512578506319613</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.1073678280530866</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.5050708731896028</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.6696658464320466</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.5780421954478874</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.2757474044983657</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.09239149000643337</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.7216880891717079</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.03479332462295748</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.1798914827996675</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4509766991364341</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.7511664704221855</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.6557049268210265</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.06688882375349156</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.005777159477002681</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.06804917896619311</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.2867452422244283</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.6485599561384906</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.1993376660100206</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>0.02473130512980429</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.1400872240013483</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.4740953676701904</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.2150495174253074</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.798135759866997</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.24462609646236</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.224004248716008</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7878117248343423</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.2285209665771795</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.69827090094927</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.059507047953735</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.471996829425787</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.7996327286893162</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.322968887686392</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.361563175407583</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>1.158072836459471</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>1.008720807881578</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0.5185786685626673</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.3566841104021928</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1952360270872266</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.05082917682537</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.5360354858090307</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.4438682059817527</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.3983175808653818</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.9654938655388527</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1291882822915938</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.1796306694587557</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.1130244561229425</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.3782927623779067</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.5396560102161724</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.0446856468128201</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.1150964369996062</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>-0.3108082352783756</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.6109106300552676</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2584270734493465</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3586811508804758</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.02930270728147438</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.6507034975373867</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.5771310126622371</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.4536083203773166</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.1370995800638629</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.392769260303492</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.4283648242362537</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.5419929360869056</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.1576093253327686</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.1650197524651315</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.1319660269159521</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.5171603334596577</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.1680579644127622</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.778788691605338</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.3938147842109544</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.282537339073824</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.09259546127168529</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.1953578814692246</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.682178215584065</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.4740376080183713</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.08254254982754319</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.390173763087258</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.1275432483886</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.9891999658390049</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.3124960341642624</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.4212284249890608</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>-0.05856180192755964</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.4665759491108575</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3738786841516504</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1919679075967161</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4402997341846278</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.06492662363017947</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.3156996470941631</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.9781113282538414</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1020995327162308</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.03494669698820798</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.0109262640698438</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.3871601678857225</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.6495890982031719</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.01982935873461774</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.1728740335196571</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>-0.03035763550766339</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.6210085323651652</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.09774858669603494</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.165637648618145</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.01921634918727801</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.455946885304888</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.4923893829481287</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.488788036103722</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.304845986606582</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2967779170754779</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.3300164338416148</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.5144881575891437</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2911481297747442</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1827162501337454</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.07268513051741562</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.2849097567784616</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.2338428860383881</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9468166891706228</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.7006368186713707</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.261487758899344</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.5173762348743783</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.08060839416748454</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.672583903668578</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1857359882221223</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.2682485366909581</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.493483236167798</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.2227983552598666</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.099696771446353</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.2575904985314388</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.5225549864313326</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.3124030024161972</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.06237323313222195</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.8721030179077567</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.1964824790916785</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.1332214183050578</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.3931032503662178</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.2887321057066725</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.6883095640603378</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.01883122908201789</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.04520230041281122</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>-0.04757482904990674</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.1969398604101686</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.7761343181871605</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.1053200128524083</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>-0.0458371452442115</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0.1514366556322249</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.3881893061751236</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.2040348121131453</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.1685043732427028</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.4463968089171694</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.08651121193452856</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.4830383638257251</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.1249991256779059</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.2756069229341273</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3258762480854376</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.352441387017001</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.375695662667468</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0.3469096995795372</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.127656538532873</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.2983123170350032</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.1240913615688425</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.4619096107111301</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.108200625483759</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.6579579123996676</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.3094153652748182</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.216579672694088</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.04773889830118042</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.555867645809962</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.4278780211400501</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.6371483418841595</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.4626442735631383</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.05927002267897993</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1.433490059009901</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.3756212084436649</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.2964229111171205</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.5742940438378398</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.01473166115878199</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.07259806919069664</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.004167573255193183</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1.811918516196567</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.1944280081985568</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.2604794405383017</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.7032693429429805</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.1858708864605403</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.4458422354553709</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>-0.3386511571251721</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.1719258041968873</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.4555899239295022</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.1012188252423288</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0.8765593496418946</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>-0.2902101287308885</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.4024782097480009</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.3790123333360037</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.3293545756330887</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5626123392951287</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.6020250148275176</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.5057707620969766</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>0.1096857494468536</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.1880542868417564</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.1081335357015366</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.6668798878443958</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.3915794179846499</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>0.03881509330058772</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.1623781279570835</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>0.2968025957845384</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.5664006221228478</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.576454318331022</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.108725068996105</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.6181866904277986</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>3.990055799406505</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.6255853398201753</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.06340231998869619</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.464850660504498</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.7684686286989403</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>1.409078498220051</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.3357637724562749</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.122530509906484</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.034263609957351</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.485139391827928</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>1.651451702785786</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>0.123144905866809</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.3035744412771444</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2035009026897424</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3216049954535764</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3508011767423358</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.1909577841459247</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.3438645042298184</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.6783060498574082</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.1146657735983127</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.050502923533166</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.03308650619204884</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.3256941956913252</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.4339709156550422</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>0.2077613046726058</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.1861580380230331</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>-0.1128011126385457</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.4408632587465112</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.01672550018655231</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1037673545775738</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1221189842976781</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.3753000623661496</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.4341799618057562</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.4572164445892332</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.03250243464037702</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.1113237791458381</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.2198707047003694</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.395053645478156</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.2678391881238014</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>0.08245752187866282</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>0.03818321113391028</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>-0.2396686888305044</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.1540721068997734</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.4624601757747403</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5725819180275246</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.6808431779787691</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.01896896854842515</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-0.2356985034883188</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.9864435909174779</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.2648501445788034</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.2360407015870774</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.1729225126308896</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.2357541452978622</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.6252495845240711</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.354138852486158</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.3536794728099829</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.03279793947667361</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
